--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1396613.922265632</v>
+        <v>-1356579.660536789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10467317.68655162</v>
+        <v>10476879.14152138</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>351.390596604299</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>314.8515723574436</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>96.75578731583718</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>25.50309839158994</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>315.7090974304647</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>196.7903609457605</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>155.014150068408</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.9856702919973</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>329.9041245198146</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>161.4860826892246</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>336.1195269445901</v>
+        <v>397.3838530629673</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1534,10 +1534,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F13" t="n">
-        <v>35.34780583513547</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561517</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800572</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>65.54144271871742</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>35.51678257079541</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2242,10 +2242,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>54.18430635300722</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>50.38971918733537</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>148.8597651552994</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,16 +3196,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3515,7 +3515,7 @@
         <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242225</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444.996860880007</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C2" t="n">
-        <v>444.996860880007</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>413.1274800948556</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>413.1274800948556</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>389.3004545444674</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1295.499664994109</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1294.684614445547</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>875.5421510248573</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>871.2964313649147</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.7016723508711</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C4" t="n">
-        <v>203.7016723508711</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1418.79112158294</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1140.358120836046</v>
+        <v>1244.884088216191</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.358120836046</v>
+        <v>957.9285800866212</v>
       </c>
       <c r="W4" t="n">
-        <v>868.3317164223374</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="X4" t="n">
-        <v>622.9399617557499</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.5202910698582</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>975.5969265972003</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>941.4948578210276</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7091764049912</v>
+        <v>909.6254770358762</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>475.8507321941713</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.0237066437831</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704699</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704699</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704699</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199649</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1112.375769149671</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1738.870975579378</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1738.870975579378</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1815.640912640697</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1815.640912640697</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640697</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599292</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352349</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536186</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409225</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726242</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660068</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1604.920359111506</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1406.142216742051</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>997.8560930417041</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1374.225746864833</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1267.769285701476</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1172.678996848029</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1078.558582174983</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>995.1747437911442</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>909.7896540573281</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>868.0540018735405</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>894.1176750339981</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>1218.67600000021</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1218.67600000021</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1218.67600000021</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1218.67600000021</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1218.67600000021</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1246.886840196228</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625934</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2414.12098525801</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352349</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2467.838325800732</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2337.659682131334</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2161.323135131302</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1962.205617193302</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1776.882862926496</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1622.015427165376</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1495.529647944596</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.9454964518109</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>428.3837849350358</v>
+        <v>957.1223243621533</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>791.244331563676</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>444.7792737761695</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923717</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704699</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704699</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381826</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.5942116061436</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.513025140825</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352349</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057721</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057721</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.295992493673</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.295992493673</v>
       </c>
       <c r="V7" t="n">
-        <v>1537.601944936986</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>1265.575540523277</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.18378585669</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.764115170798</v>
+        <v>1321.502654597916</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>892.9432703704374</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2506.128520641224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2006.778298615287</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C11" t="n">
-        <v>2006.778298615287</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1570.868513789732</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E11" t="n">
-        <v>1137.093768948027</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F11" t="n">
-        <v>709.2263393572348</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7116656758306</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904688</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>2341.808132766345</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>2341.808132766345</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>2341.808132766345</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>3179.926212475948</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309344</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309344</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309344</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493181</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.584213493181</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.361910810198</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.361910810198</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.506456221231</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.363992800542</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2433.077869100195</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.6585591637991</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>617.096847647024</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>451.2188548485467</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>281.460851099284</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203592</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.288603235266</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.896848568678</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.4771778827862</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,40 +5276,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5355,22 +5355,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
         <v>463.598980006605</v>
@@ -5467,19 +5467,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004233</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5592,22 +5592,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354702</v>
+        <v>188.8405254354646</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066058</v>
+        <v>463.5989800066002</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745669</v>
+        <v>881.8088617745613</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755404</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008504</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.07327505821</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977914</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>982.1554751127464</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,28 +5750,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5944,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="26">
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6835,13 +6835,13 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
         <v>447.2151165412737</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
@@ -6923,7 +6923,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6941,22 +6941,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
@@ -6971,7 +6971,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
         <v>3629.919912574026</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581786</v>
@@ -7111,34 +7111,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.47362528195</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206712</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.648111803011</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390332</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961503</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835866</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197248</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581717</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
         <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7366,10 +7366,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,34 +7415,34 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7564,16 +7564,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7588,19 +7588,19 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231237</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2177.324623035295</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097103043</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>28.495798177795</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436480046</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8690,28 +8690,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>846.5839188985879</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967403</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10589,7 +10589,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781626</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>779.6755805253167</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>348.9576316346709</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>45.99325645866968</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>61.26432611837862</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>124.3589898130798</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.5691704774784</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832510.090626945</v>
+        <v>691729.0155444049</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>909171.6642005787</v>
+        <v>917725.760555774</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>909171.6642005787</v>
+        <v>919148.8658467126</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773584.0071504739</v>
+        <v>923070.5065454713</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923070.5065454715</v>
+        <v>923070.5065454711</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923070.5065454716</v>
+        <v>923070.5065454713</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>923070.5065454713</v>
+        <v>923070.5065454715</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923070.5065454713</v>
+        <v>923070.5065454715</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48968.57601488124</v>
+        <v>40436.38964624244</v>
       </c>
       <c r="C2" t="n">
         <v>53614.73198904085</v>
@@ -26320,25 +26320,25 @@
         <v>53614.73198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>44153.57204509641</v>
+        <v>52685.75841373522</v>
       </c>
       <c r="F2" t="n">
+        <v>52685.75841373523</v>
+      </c>
+      <c r="G2" t="n">
         <v>52685.75841373522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>52685.75841373525</v>
       </c>
       <c r="H2" t="n">
         <v>52685.75841373524</v>
       </c>
       <c r="I2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="J2" t="n">
         <v>52685.75841373524</v>
       </c>
       <c r="K2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="L2" t="n">
         <v>53614.73198904088</v>
@@ -26347,7 +26347,7 @@
         <v>53614.73198904086</v>
       </c>
       <c r="N2" t="n">
-        <v>53614.73198904082</v>
+        <v>53614.73198904083</v>
       </c>
       <c r="O2" t="n">
         <v>53614.73198904086</v>
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246292</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106354</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471826</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338265</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143467</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341148</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167177.9510711172</v>
+        <v>118479.0404528106</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594512</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>45725.81943247918</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="F4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962281</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26442,22 +26442,22 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>59904.18292625602</v>
       </c>
       <c r="M4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926988</v>
+        <v>68372.72551926985</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926988</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295571</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710202</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26503,13 +26503,13 @@
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="O5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="P5" t="n">
         <v>75515.6147260897</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.6147260897</v>
-      </c>
-      <c r="P5" t="n">
-        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319825.4638531682</v>
+        <v>-279988.1981620704</v>
       </c>
       <c r="C6" t="n">
-        <v>-199506.7357993459</v>
+        <v>-240384.401365829</v>
       </c>
       <c r="D6" t="n">
-        <v>-199506.7357993459</v>
+        <v>-179384.2900195696</v>
       </c>
       <c r="E6" t="n">
-        <v>-235004.8059870094</v>
+        <v>-261972.6388621122</v>
       </c>
       <c r="F6" t="n">
-        <v>-158733.2110063983</v>
+        <v>-79617.52964106263</v>
       </c>
       <c r="G6" t="n">
-        <v>-79594.30530168</v>
+        <v>-79617.52964106263</v>
       </c>
       <c r="H6" t="n">
-        <v>-79594.30530168001</v>
+        <v>-79617.52964106284</v>
       </c>
       <c r="I6" t="n">
-        <v>-79594.30530168004</v>
+        <v>-79617.52964106269</v>
       </c>
       <c r="J6" t="n">
-        <v>-190608.7706466702</v>
+        <v>-190631.9949860529</v>
       </c>
       <c r="K6" t="n">
-        <v>-79594.30530168004</v>
+        <v>-133285.8567044453</v>
       </c>
       <c r="L6" t="n">
-        <v>-98361.17774647372</v>
+        <v>-107141.3514369105</v>
       </c>
       <c r="M6" t="n">
-        <v>-219632.0296542025</v>
+        <v>-227851.3089941707</v>
       </c>
       <c r="N6" t="n">
-        <v>-157922.8085297302</v>
+        <v>-90273.60825631875</v>
       </c>
       <c r="O6" t="n">
+        <v>-90273.60825631875</v>
+      </c>
+      <c r="P6" t="n">
         <v>-90273.60825631872</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-90273.60825631875</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874736</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380873</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,22 +27012,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317983</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576976963</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574093</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317983</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576976963</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702095</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574088</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317983</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576976963</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574093</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>17.1480344481335</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13920820806817</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>146.6648646414921</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>250.1455723478358</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>218.1606778407219</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>88.40650188892124</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>126.1002827562766</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>101.6465624574853</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>253.4649560972578</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-2.618692463599294e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874623</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097103043</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>28.495798177795</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>632.8234408380872</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436480046</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>846.5839188985879</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>507.1059092967403</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908142</v>
+        <v>87.45422743907578</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781626</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>779.6755805253167</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
